--- a/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
+++ b/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
@@ -1,39 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\Desktop\GUIAS ADSI\GUIA 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mapaProcesos" sheetId="1" r:id="rId1"/>
     <sheet name="caracterizacionProceso1" sheetId="2" r:id="rId2"/>
     <sheet name="diagramaFlujoProceso1" sheetId="3" r:id="rId3"/>
-    <sheet name="caracterizacionProceso2" sheetId="4" r:id="rId4"/>
+    <sheet name="caracterizacionProceso2" sheetId="8" r:id="rId4"/>
     <sheet name="diagramaFlujoProceso2" sheetId="5" r:id="rId5"/>
     <sheet name="caracterizacionProcesoN" sheetId="6" r:id="rId6"/>
     <sheet name="diagramaFlujoProcesoN" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$25</definedName>
-    <definedName name="Print_Area" localSheetId="3">caracterizacionProceso2!$A$1:$E$25</definedName>
-    <definedName name="Print_Area" localSheetId="5">caracterizacionProcesoN!$A$1:$E$25</definedName>
-    <definedName name="Print_Titles" localSheetId="1">caracterizacionProceso1!$A$1:$F$5</definedName>
-    <definedName name="Print_Titles" localSheetId="3">caracterizacionProceso2!$A$1:$F$5</definedName>
-    <definedName name="Print_Titles" localSheetId="5">caracterizacionProcesoN!$A$1:$F$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">caracterizacionProcesoN!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">caracterizacionProceso1!$A$1:$F$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">caracterizacionProcesoN!$A$1:$F$5</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -43,14 +31,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="0"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
           </rPr>
           <t>orodriguez:
 (normativos, legales, reglamentarios)</t>
@@ -67,14 +54,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="0"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
           </rPr>
           <t>orodriguez:
 (normativos, legales, reglamentarios)</t>
@@ -91,14 +77,13 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0" shapeId="0">
+    <comment ref="D19" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="0"/>
             <rFont val="Arial"/>
-            <charset val="1"/>
           </rPr>
           <t>orodriguez:
 (normativos, legales, reglamentarios)</t>
@@ -110,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>MACROPROCESO DE   ()
 PROCESO</t>
@@ -172,77 +157,272 @@
   </si>
   <si>
     <t>Metas</t>
+  </si>
+  <si>
+    <t>implementar un sistema de información que pretenda automatizar y hacer más eficiente los procesos de inventario y facturación</t>
+  </si>
+  <si>
+    <t>creación de todo un sistema financiero que se apoye o se sustente en una base de datos para clientes y proveedores; pero, sobre todo, que la base de datos incorpore también un registro completo de todos los movimientos reflejados en la mercancía, salidas y entradas: todo esto con la intención de poder tener una mayor gestión contable, comercial y financiera de la empresa.</t>
+  </si>
+  <si>
+    <t>crear de todo un sistema financiero que se apoye o se sustente en una base de datos para clientes y proveedores; pero, sobre todo, que la base de datos incorpore también un registro completo de todos los movimientos reflejados en la mercancía, salidas y entradas: todo esto con la intención de poder tener una mayor gestión contable, comercial y financiera de la empresa.</t>
+  </si>
+  <si>
+    <t>crear todo un sistema financiero que se apoye o se sustente en una base de datos para clientes y proveedores; pero, sobre todo, que la base de datos incorpore también un registro completo de todos los movimientos reflejados en la mercancía, salidas y entradas: todo esto con la intención de poder tener una mayor gestión contable, comercial y financiera de la empresa.</t>
+  </si>
+  <si>
+    <t>MACROPROCESO DE PROYECTO SISTEMA DE INFORMACIÓN DE INVENTARIOS Y FACTURACIÓN DE LA EMPRESA ""   ()
+PROCESO</t>
+  </si>
+  <si>
+    <t>MACROPROCESO DE PROYECTO SISTEMA DE INFORMACIÓN DE INVENTARIOS Y FACTURACIÓN DE LA EMPRESA "VIDRIERÍA Y ORNAMENTACIÓN EMANUEL".</t>
+  </si>
+  <si>
+    <t>Implementar un sistema de información que pretenda automatizar y hacer más eficiente los procesos de inventario y facturación</t>
+  </si>
+  <si>
+    <t>Crear todo un sistema financiero que se apoye o se sustente en una base de datos para clientes y proveedores; pero, sobre todo, que la base de datos incorpore también un registro completo de todos los movimientos reflejados en la mercancía, salidas y entradas: todo esto con la intención de poder tener una mayor gestión contable, comercial y financiera de la empresa.</t>
+  </si>
+  <si>
+    <t>Area de Compras</t>
+  </si>
+  <si>
+    <t>Area Contable</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Ingresos Brutos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidad neta = Ingresos brutos - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilidad neta = Ingresos brutos - Costos </t>
+  </si>
+  <si>
+    <t>Uyilidad neta</t>
+  </si>
+  <si>
+    <t>Utilidad neta</t>
+  </si>
+  <si>
+    <t>Empresa ""</t>
+  </si>
+  <si>
+    <t>Empresa "Vidriería y Ornamentación Emanuel"</t>
+  </si>
+  <si>
+    <t>Area Contable/Ventas</t>
+  </si>
+  <si>
+    <t>Proveedores de materia prima</t>
+  </si>
+  <si>
+    <t>Materia prima especifica</t>
+  </si>
+  <si>
+    <t>Producto final= materia prima + transformacion e influencia de la mano del hombre</t>
+  </si>
+  <si>
+    <t>producto final ()</t>
+  </si>
+  <si>
+    <t>producto final (con valor agregado)</t>
+  </si>
+  <si>
+    <t>Producto final = materia prima + transformacion e influencia de la mano del hombre</t>
+  </si>
+  <si>
+    <t>Producto final = materia prima  + transformacion e influencia del conocimiento del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Producto final = materia prima  + proceso de transformacion de la mateira prima e influencia del conocimiento del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Producto final = materia prima  + proceso de transformacion de la materia prima e influencia del conocimiento del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Materia prima en especifica</t>
+  </si>
+  <si>
+    <t>cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0%"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0;\\\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="14.0"/>
+      <name val="Arial"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF006600"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Arial"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial_x0000_"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -252,12 +432,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF0066CC"/>
         <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -535,247 +907,454 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="6" builtinId="7"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
     <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="11" builtinId="15"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Warning Text" xfId="10" builtinId="11"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -794,31 +1373,32 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+          <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7620000" cy="7620000"/>
+          <a:ext cx="7433310" cy="9413240"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="000000">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
@@ -842,31 +1422,32 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+          <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7620000" cy="7620000"/>
+          <a:ext cx="7433310" cy="9051290"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="000000">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
@@ -890,31 +1471,32 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3074" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1">
-          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+          <a:spLocks/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7620000" cy="7620000"/>
+          <a:ext cx="7433310" cy="7675245"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rect"/>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:srgbClr val="000000">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
     </xdr:sp>
@@ -1185,231 +1767,250 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="B1" showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="1025" width="10" customWidth="1"/>
+    <col min="1" max="1" width="29.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="32.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="34.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="27.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="28.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="1025" width="10.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="111.750000" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="27.950000" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="46.200000" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" s="13" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="18.750000" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="24"/>
+    <row r="6" spans="1:6" ht="57.000000">
+      <c r="A6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="15"/>
+    <row r="7" spans="1:6" ht="14.250000">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="15"/>
+    <row r="8" spans="1:6" ht="14.250000">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="15"/>
+    <row r="9" spans="1:6" ht="14.250000">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="1:6" ht="14.250000">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:6" ht="14.250000">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" s="28" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:6" s="25" customFormat="1" ht="14.250000">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" s="28" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:6" s="25" customFormat="1" ht="14.250000">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:6" ht="14.550000">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:6" ht="14.550000">
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:6" ht="14.550000">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:6" ht="14.550000">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:6" ht="78.750000" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+    <row r="20" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.000000" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1417,296 +2018,318 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="36.750000" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+    <row r="23" spans="1:6" ht="14.250000">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+    <row r="24" spans="1:6" ht="14.250000">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+    <row r="25" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54"/>
+    <row r="26" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="32.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="34.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="27.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="28.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="1025" width="10.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="111.750000" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="27.950000" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1" ht="46.200000" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1" ht="18.750000" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="24"/>
+    <row r="6" spans="1:6" ht="28.500000">
+      <c r="A6" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="15"/>
+    <row r="7" spans="1:6" ht="14.250000">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="15"/>
+    <row r="8" spans="1:6" ht="14.250000">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="15"/>
+    <row r="9" spans="1:6" ht="14.250000">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="1:6" ht="14.250000">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:6" ht="14.250000">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:6" s="25" customFormat="1" ht="14.250000">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:6" s="25" customFormat="1" ht="14.250000">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:6" ht="14.550000">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:6" ht="14.550000">
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:6" ht="14.550000">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:6" ht="14.550000">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:6" ht="78.750000" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+    <row r="20" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.000000" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1714,106 +2337,112 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="36.750000" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+    <row r="23" spans="1:6" ht="14.250000">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+    <row r="24" spans="1:6" ht="14.250000">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+    <row r="25" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54"/>
+    <row r="26" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.29071508" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="32.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="34.57643018" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" width="27.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="28.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" width="11.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="57.000000" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1823,7 +2452,7 @@
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.000000" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1831,179 +2460,179 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.000000" customHeight="1">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="24"/>
+    <row r="6" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="15"/>
+    <row r="7" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="15"/>
+    <row r="8" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="15"/>
+    <row r="9" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
+    <row r="14" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="27"/>
+    <row r="17" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
+    <row r="18" spans="1:6" ht="78.750000" customHeight="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="18"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
+    <row r="20" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="18.000000" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -2011,84 +2640,88 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="F21" s="32"/>
+    </row>
+    <row r="22" spans="1:6" ht="36.750000" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="39"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="43"/>
+    <row r="23" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47"/>
+    <row r="24" spans="1:6" ht="14.250000" customHeight="1">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="52"/>
+    <row r="25" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54"/>
+    <row r="26" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A26" s="50"/>
+      <c r="B26" s="0"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:E21"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1025" width="17.109375" customWidth="1"/>
+    <col min="1" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
+++ b/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
@@ -16,7 +16,7 @@
     <sheet name="diagramaFlujoProcesoN" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">caracterizacionProcesoN!$A$1:$E$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">caracterizacionProceso1!$A$1:$F$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">caracterizacionProcesoN!$A$1:$F$5</definedName>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D19" authorId="0">
+    <comment ref="D18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
             <rFont val="Arial"/>
           </rPr>
           <t>orodriguez:
-(normativos, legales, reglamentarios)</t>
+(normativos, legales, reglamentarios)dd</t>
         </r>
       </text>
     </comment>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>MACROPROCESO DE   ()
 PROCESO</t>
@@ -248,6 +248,183 @@
   </si>
   <si>
     <t>cliente</t>
+  </si>
+  <si>
+    <t>Saumeth</t>
+  </si>
+  <si>
+    <t>Aluminio, láminas de acrílico</t>
+  </si>
+  <si>
+    <t>Ventanas de aluminio = Aluminio + l</t>
+  </si>
+  <si>
+    <t>Ventanas de aluminio = Aluminio + láminas de acrílico + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Ventanas de aluminio</t>
+  </si>
+  <si>
+    <t>Cliente Final</t>
+  </si>
+  <si>
+    <t>Divisiones de baño = Aluminio + láminas de acrílico + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Divisiones de baño</t>
+  </si>
+  <si>
+    <t>Divisiones de baño en acrílico con perfiles de aluminio = Aluminio + láminas de acrílico + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Divisiones de baño en acrílico con perfiles de aluminio</t>
+  </si>
+  <si>
+    <t>Insta</t>
+  </si>
+  <si>
+    <t>Aluminios Saumeth</t>
+  </si>
+  <si>
+    <t>Instavidrios</t>
+  </si>
+  <si>
+    <t>Vidrio</t>
+  </si>
+  <si>
+    <t>Vidrio Templado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vidrio Templado para mesas: vidrio </t>
+  </si>
+  <si>
+    <t>Vidrio Templado para mesas: vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio templado para mesas</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para mesas: vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas: vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para mesas</t>
+  </si>
+  <si>
+    <t>Telvid</t>
+  </si>
+  <si>
+    <t>Vidrio Templado para muebles: vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio templado para muebles</t>
+  </si>
+  <si>
+    <t>Vidrio Templado para muebles= vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas= vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio templado para muebles= vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas = vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio templado para muebles = vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Alberto Marcos</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas y puertas = vidrio + transformación de la materia prima e influencia del hombre sobre ella</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas y puertas</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Diplomas, cuadros, pinturas</t>
+  </si>
+  <si>
+    <t>Diplomas, cuadros, pinturas = Marcos</t>
+  </si>
+  <si>
+    <t>Diplomas, cuadros, pinturas = Marcos + transformación de la materia prima e influencia del hombre sobre ella, entre otros recursos</t>
+  </si>
+  <si>
+    <t>Sistema de información</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas</t>
+  </si>
+  <si>
+    <t>Administrado de recursos humanos: Alejandra Rodriguez</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas, 2 asistentes comerciales</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas, 1 asistente de ventas</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas y equipos, 1 asistente de ventas</t>
+  </si>
+  <si>
+    <t>Recibos</t>
+  </si>
+  <si>
+    <t>Recibos, facturas de venta, lista de compras</t>
+  </si>
+  <si>
+    <t>Entrada de mercancia e inventario, ventas, devoluciones, etc.</t>
+  </si>
+  <si>
+    <t>Administradora de recursos humanos: Alejandra Rodriguez</t>
+  </si>
+  <si>
+    <t>Administradora de recursos humanos: Alejandra Rodriguez, registro completo en cuaderno de todo movimiento contable</t>
+  </si>
+  <si>
+    <t>Mayor control y eficiencia en el manejo del inventario y la facturación</t>
+  </si>
+  <si>
+    <t>semanal</t>
+  </si>
+  <si>
+    <t>stock promedio / demanda promedio = tasa de cobertura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Registro mercantil expedido por la Camara de Comercio, Fotocopia de la cedula del representante legal, RUT, declaración de renta y registro de estados financieros, </t>
+  </si>
+  <si>
+    <t>Recibos, facturas de venta, lista de compras a proveedores.</t>
+  </si>
+  <si>
+    <t>Registro mercantil expedido por la Camara de Comercio, Fotocopia de la cedula del representante legal, RUT, declaración de renta y registro de estados financieros.</t>
+  </si>
+  <si>
+    <t>Administradora de recursos humanos: Alejandra Rodriguez; registro completo, por medio de anotaciones, en de todo movimiento contable</t>
+  </si>
+  <si>
+    <t>Administradora de recursos humanos: Alejandra Rodriguez; registro completo, por medio de anotaciones, en de todo movimiento contable.</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas y equipos, 1 asistente de ventas.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +439,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0;\\\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -413,8 +590,24 @@
       <name val="Arial_x0000_"/>
       <color rgb="FF000000"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10.0"/>
+      <name val="Arial_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1066,10 +1253,10 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="26" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="25" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1078,85 +1265,85 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,6 +1547,55 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 1"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715000" cy="4200525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1370,7 +1606,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1383,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7433310" cy="9413240"/>
+          <a:ext cx="7268210" cy="13213715"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1407,7 +1643,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1456,7 +1692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1770,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
@@ -1782,21 +2018,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
   <pageSetup paperSize="1" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A17" showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
     <col min="1" max="1" width="29.29071508" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="32.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="30.00499998" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="34.57643018" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="27.14785658" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" width="28.43357168" customWidth="1" outlineLevel="0"/>
@@ -1869,86 +2106,126 @@
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="57.000000">
-      <c r="A6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>49</v>
+      <c r="A6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="14.250000">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="4"/>
+    <row r="7" spans="1:6" ht="71.250000">
+      <c r="A7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="14.250000">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="4"/>
+    <row r="8" spans="1:6" ht="57.000000">
+      <c r="A8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="14.250000">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="4"/>
+    <row r="9" spans="1:6" ht="57.000000">
+      <c r="A9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="14.250000">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:6" ht="71.250000">
+      <c r="A10" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" ht="14.250000">
+    <row r="11" spans="1:6" s="25" customFormat="1" ht="14.250000">
       <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="25" customFormat="1" ht="14.250000">
       <c r="A12" s="22"/>
       <c r="B12" s="24"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D12" s="24"/>
       <c r="E12" s="4"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" s="25" customFormat="1" ht="14.250000">
+    <row r="13" spans="1:6" ht="14.550000">
       <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="14.550000">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="4"/>
       <c r="F14" s="9"/>
     </row>
@@ -1968,105 +2245,113 @@
       <c r="E16" s="4"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6" ht="14.550000">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
+    <row r="17" spans="1:6" ht="78.750000" customHeight="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" ht="78.750000" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="3"/>
+    <row r="18" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" ht="18.750000" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>14</v>
+    <row r="19" spans="1:6" ht="100.500000">
+      <c r="A19" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>107</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="15.000000" customHeight="1">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.000000" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="20" spans="1:6" ht="18.000000" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:6" ht="36.750000" customHeight="1">
-      <c r="A22" s="33" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" ht="36.750000" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C21" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="42.750000">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="40"/>
       <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" ht="14.250000">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:6" ht="14.250000">
-      <c r="A24" s="41"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
+    <row r="24" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.000000" customHeight="1">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.000000" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="0"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2074,8 +2359,8 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>

--- a/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
+++ b/Sena/Registro de Aprendisaje - Analisis y desarrollo de sistemas informaticos/Fase 1. identificación/Trabajos y sus directrises/4. Levantamiento del mapa de procesos del sistema en desarrollo/plantilla_caracterizacion_de_procesos.xlsx
@@ -16,7 +16,7 @@
     <sheet name="diagramaFlujoProcesoN" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">caracterizacionProceso1!$A$1:$E$17</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">caracterizacionProcesoN!$A$1:$E$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">caracterizacionProceso1!$A$1:$F$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">caracterizacionProcesoN!$A$1:$F$5</definedName>
@@ -31,7 +31,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="D18" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>MACROPROCESO DE   ()
 PROCESO</t>
@@ -425,6 +425,63 @@
   </si>
   <si>
     <t>Sistema de información, capital de trabajo, maquinas y equipos, 1 asistente de ventas.</t>
+  </si>
+  <si>
+    <t>Area de Compras/Inventario</t>
+  </si>
+  <si>
+    <t>PROCESO DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>diario</t>
+  </si>
+  <si>
+    <t>Sistema de información, capital de trabajo, maquinas y equipos tales como: pulidora, cortavidrio, comprensor, soldador y cortadora; además,se cuenta con la presencia de un (1) asistente de ventas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rotación de inventarios, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rotación de inventarios,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Rotación de inventarios, 2. </t>
+  </si>
+  <si>
+    <t>1. Ratio de existencias, 2. Rotación de inventarios</t>
+  </si>
+  <si>
+    <t>1. Ratio de existencias, 2. Rotación de inventarios.</t>
+  </si>
+  <si>
+    <t>1. Rotación de inventarios.</t>
+  </si>
+  <si>
+    <t>ventas a precio de coste / existencias medias = tasa de cobertura</t>
+  </si>
+  <si>
+    <t>ventas a precio de coste / existencias medias = rotación de inventarios</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>mensual</t>
+  </si>
+  <si>
+    <t>Diplomas, cuadros, pinturas = Marcos + transformación de la materia prima e influencia del hombre sobre ella, entre otros recursos.</t>
+  </si>
+  <si>
+    <t>Vidrio flotado para ventanas y puertas = vidrio + transformación de la materia prima e influencia del hombre sobre ella.</t>
+  </si>
+  <si>
+    <t>Vidrio templado para muebles = vidrio + transformación de la materia prima e influencia del hombre sobre ella.</t>
+  </si>
+  <si>
+    <t>Divisiones de baño en acrílico con perfiles de aluminio = Aluminio + láminas de acrílico + transformación de la materia prima e influencia del hombre sobre ella.</t>
+  </si>
+  <si>
+    <t>Ventanas de aluminio = Aluminio + láminas de acrílico + transformación de la materia prima e influencia del hombre sobre ella.</t>
   </si>
 </sst>
 </file>
@@ -439,7 +496,7 @@
     <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0;\\\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="37">
     <font>
       <sz val="10.0"/>
       <name val="Arial"/>
@@ -591,11 +648,6 @@
       <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <name val="Arial_x0000_"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <strike/>
       <sz val="10.0"/>
       <name val="Arial_x0000_"/>
@@ -605,6 +657,52 @@
       <sz val="10.0"/>
       <name val="Arial"/>
       <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial_x0000_"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="35">
@@ -816,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1201,6 +1299,344 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1347,7 +1783,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1490,6 +1926,181 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
@@ -1562,13 +2173,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Imagen 1"/>
+        <xdr:cNvPr id="1" name="Imagen 1" descr="xl/media/OImage-717527590.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
@@ -1606,7 +2217,7 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1619,7 +2230,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7268210" cy="13213715"/>
+          <a:ext cx="7223760" cy="10674350"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:solidFill>
@@ -1644,6 +2255,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Imagen 1" descr="xl/media/OImage-134452711.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="hqprint">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4552950" cy="5505450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1692,7 +2352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2007,7 +2667,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
@@ -2024,343 +2684,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1" width="29.29071508" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" width="30.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="2" width="29.29071508" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" width="34.57643018" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="27.14785658" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" width="28.43357168" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="28.14785658" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="11.43357168" customWidth="1" outlineLevel="0"/>
     <col min="7" max="1025" width="10.00499998" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="111.750000" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="86"/>
+      <c r="B1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88"/>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="27.950000" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1" ht="46.200000" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1" ht="18.750000" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" ht="18.750000" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="98" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" ht="57.000000">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" ht="60.000000">
+      <c r="A6" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="92" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="71.250000">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" ht="75.000000">
+      <c r="A7" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="92" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" ht="57.000000">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" ht="45.000000">
+      <c r="A8" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="92" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" ht="57.000000">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" ht="60.000000">
+      <c r="A9" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="85" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="92" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" ht="71.250000">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" ht="60.000000">
+      <c r="A10" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="92" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" ht="14.250000">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:6" ht="18.750000" customHeight="1">
+      <c r="A11" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" s="25" customFormat="1" ht="14.250000">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="4"/>
+    <row r="12" spans="1:6" ht="105.750000">
+      <c r="A12" s="100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>107</v>
+      </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6" ht="14.550000">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.550000">
-      <c r="A14" s="26"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="4"/>
+    <row r="13" spans="1:6" ht="18.000000" customHeight="1">
+      <c r="A13" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6" ht="36.750000" customHeight="1">
+      <c r="A14" s="104" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="107"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6" ht="14.550000">
-      <c r="A15" s="26"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="4"/>
+    <row r="15" spans="1:6" ht="45.750000">
+      <c r="A15" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="112"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6" ht="14.550000">
-      <c r="A16" s="26"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" ht="78.750000" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.750000" customHeight="1">
-      <c r="A18" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" ht="100.500000">
-      <c r="A19" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.000000" customHeight="1">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" ht="36.750000" customHeight="1">
-      <c r="A21" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" ht="42.750000">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.250000">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.000000" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.000000" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="0"/>
+    <row r="16" spans="1:6" ht="15.000000" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
@@ -2372,20 +2957,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.750000"/>
   <cols>
-    <col min="1" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="4" width="17.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" width="26.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="1025" width="17.14785658" customWidth="1" outlineLevel="0"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="5:5">
+      <c r="E1" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
   <pageSetup paperSize="1" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
